--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/C3-C5ar2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/C3-C5ar2.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>40.942832</v>
+        <v>0.555934</v>
       </c>
       <c r="H2">
-        <v>122.828496</v>
+        <v>1.667802</v>
       </c>
       <c r="I2">
-        <v>0.2583000005785166</v>
+        <v>0.005745252779589096</v>
       </c>
       <c r="J2">
-        <v>0.2583000005785166</v>
+        <v>0.005745252779589094</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -555,28 +555,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>24.12906</v>
+        <v>0.05933733333333333</v>
       </c>
       <c r="N2">
-        <v>72.38718</v>
+        <v>0.178012</v>
       </c>
       <c r="O2">
-        <v>0.7578756968848996</v>
+        <v>0.007147682076632682</v>
       </c>
       <c r="P2">
-        <v>0.7578756968848996</v>
+        <v>0.007147682076632683</v>
       </c>
       <c r="Q2">
-        <v>987.9120498979198</v>
+        <v>0.03298764106933334</v>
       </c>
       <c r="R2">
-        <v>8891.208449081279</v>
+        <v>0.296888769624</v>
       </c>
       <c r="S2">
-        <v>0.1957592929438133</v>
+        <v>4.106524031839308E-05</v>
       </c>
       <c r="T2">
-        <v>0.1957592929438133</v>
+        <v>4.106524031839307E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>40.942832</v>
+        <v>0.555934</v>
       </c>
       <c r="H3">
-        <v>122.828496</v>
+        <v>1.667802</v>
       </c>
       <c r="I3">
-        <v>0.2583000005785166</v>
+        <v>0.005745252779589096</v>
       </c>
       <c r="J3">
-        <v>0.2583000005785166</v>
+        <v>0.005745252779589094</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -617,28 +617,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.6016783333333334</v>
+        <v>0.6016783333333333</v>
       </c>
       <c r="N3">
         <v>1.805035</v>
       </c>
       <c r="O3">
-        <v>0.01889826566702329</v>
+        <v>0.07247722803628223</v>
       </c>
       <c r="P3">
-        <v>0.01889826566702329</v>
+        <v>0.07247722803628223</v>
       </c>
       <c r="Q3">
-        <v>24.63441491970667</v>
+        <v>0.3344934425633334</v>
       </c>
       <c r="R3">
-        <v>221.70973427736</v>
+        <v>3.01044098307</v>
       </c>
       <c r="S3">
-        <v>0.004881422032725077</v>
+        <v>0.0004163999958323632</v>
       </c>
       <c r="T3">
-        <v>0.004881422032725076</v>
+        <v>0.0004163999958323631</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>40.942832</v>
+        <v>0.555934</v>
       </c>
       <c r="H4">
-        <v>122.828496</v>
+        <v>1.667802</v>
       </c>
       <c r="I4">
-        <v>0.2583000005785166</v>
+        <v>0.005745252779589096</v>
       </c>
       <c r="J4">
-        <v>0.2583000005785166</v>
+        <v>0.005745252779589094</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.039222</v>
+        <v>0.0004023333333333333</v>
       </c>
       <c r="N4">
-        <v>0.117666</v>
+        <v>0.001207</v>
       </c>
       <c r="O4">
-        <v>0.001231933634514545</v>
+        <v>4.846444209657577E-05</v>
       </c>
       <c r="P4">
-        <v>0.001231933634514545</v>
+        <v>4.846444209657578E-05</v>
       </c>
       <c r="Q4">
-        <v>1.605859756704</v>
+        <v>0.0002236707793333333</v>
       </c>
       <c r="R4">
-        <v>14.452737810336</v>
+        <v>0.002013037014</v>
       </c>
       <c r="S4">
-        <v>0.0003182084585078011</v>
+        <v>2.784404706665867E-07</v>
       </c>
       <c r="T4">
-        <v>0.0003182084585078011</v>
+        <v>2.784404706665867E-07</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>40.942832</v>
+        <v>0.555934</v>
       </c>
       <c r="H5">
-        <v>122.828496</v>
+        <v>1.667802</v>
       </c>
       <c r="I5">
-        <v>0.2583000005785166</v>
+        <v>0.005745252779589096</v>
       </c>
       <c r="J5">
-        <v>0.2583000005785166</v>
+        <v>0.005745252779589094</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.067793666666667</v>
+        <v>7.640201</v>
       </c>
       <c r="N5">
-        <v>21.203381</v>
+        <v>22.920603</v>
       </c>
       <c r="O5">
-        <v>0.2219941038135626</v>
+        <v>0.9203266254449884</v>
       </c>
       <c r="P5">
-        <v>0.2219941038135626</v>
+        <v>0.9203266254449886</v>
       </c>
       <c r="Q5">
-        <v>289.3754887049973</v>
+        <v>4.247447502734</v>
       </c>
       <c r="R5">
-        <v>2604.379398344976</v>
+        <v>38.227027524606</v>
       </c>
       <c r="S5">
-        <v>0.05734107714347049</v>
+        <v>0.005287509102967673</v>
       </c>
       <c r="T5">
-        <v>0.05734107714347049</v>
+        <v>0.005287509102967672</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>239.063137</v>
       </c>
       <c r="I6">
-        <v>0.5027335710876245</v>
+        <v>0.823525905561055</v>
       </c>
       <c r="J6">
-        <v>0.5027335710876245</v>
+        <v>0.823525905561055</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -803,28 +803,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>24.12906</v>
+        <v>0.05933733333333333</v>
       </c>
       <c r="N6">
-        <v>72.38718</v>
+        <v>0.178012</v>
       </c>
       <c r="O6">
-        <v>0.7578756968848996</v>
+        <v>0.007147682076632682</v>
       </c>
       <c r="P6">
-        <v>0.7578756968848996</v>
+        <v>0.007147682076632683</v>
       </c>
       <c r="Q6">
-        <v>1922.78959215374</v>
+        <v>4.728456349293778</v>
       </c>
       <c r="R6">
-        <v>17305.10632938366</v>
+        <v>42.55610714364401</v>
       </c>
       <c r="S6">
-        <v>0.3810095555354677</v>
+        <v>0.005886301354821451</v>
       </c>
       <c r="T6">
-        <v>0.3810095555354677</v>
+        <v>0.005886301354821452</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>239.063137</v>
       </c>
       <c r="I7">
-        <v>0.5027335710876245</v>
+        <v>0.823525905561055</v>
       </c>
       <c r="J7">
-        <v>0.5027335710876245</v>
+        <v>0.823525905561055</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -865,28 +865,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.6016783333333334</v>
+        <v>0.6016783333333333</v>
       </c>
       <c r="N7">
         <v>1.805035</v>
       </c>
       <c r="O7">
-        <v>0.01889826566702329</v>
+        <v>0.07247722803628223</v>
       </c>
       <c r="P7">
-        <v>0.01889826566702329</v>
+        <v>0.07247722803628223</v>
       </c>
       <c r="Q7">
-        <v>47.94636994386612</v>
+        <v>47.94636994386611</v>
       </c>
       <c r="R7">
         <v>431.517329494795</v>
       </c>
       <c r="S7">
-        <v>0.009500792586145267</v>
+        <v>0.05968687485113441</v>
       </c>
       <c r="T7">
-        <v>0.009500792586145265</v>
+        <v>0.05968687485113441</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,40 +915,40 @@
         <v>239.063137</v>
       </c>
       <c r="I8">
-        <v>0.5027335710876245</v>
+        <v>0.823525905561055</v>
       </c>
       <c r="J8">
-        <v>0.5027335710876245</v>
+        <v>0.823525905561055</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.039222</v>
+        <v>0.0004023333333333333</v>
       </c>
       <c r="N8">
-        <v>0.117666</v>
+        <v>0.001207</v>
       </c>
       <c r="O8">
-        <v>0.001231933634514545</v>
+        <v>4.846444209657577E-05</v>
       </c>
       <c r="P8">
-        <v>0.001231933634514545</v>
+        <v>4.846444209657578E-05</v>
       </c>
       <c r="Q8">
-        <v>3.125511453138</v>
+        <v>0.03206102292877778</v>
       </c>
       <c r="R8">
-        <v>28.129603078242</v>
+        <v>0.288549206359</v>
       </c>
       <c r="S8">
-        <v>0.0006193343954224537</v>
+        <v>3.991172356509388E-05</v>
       </c>
       <c r="T8">
-        <v>0.0006193343954224537</v>
+        <v>3.991172356509389E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>239.063137</v>
       </c>
       <c r="I9">
-        <v>0.5027335710876245</v>
+        <v>0.823525905561055</v>
       </c>
       <c r="J9">
-        <v>0.5027335710876245</v>
+        <v>0.823525905561055</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.067793666666667</v>
+        <v>7.640201</v>
       </c>
       <c r="N9">
-        <v>21.203381</v>
+        <v>22.920603</v>
       </c>
       <c r="O9">
-        <v>0.2219941038135626</v>
+        <v>0.9203266254449884</v>
       </c>
       <c r="P9">
-        <v>0.2219941038135626</v>
+        <v>0.9203266254449886</v>
       </c>
       <c r="Q9">
-        <v>563.2163085406886</v>
+        <v>608.8301394568457</v>
       </c>
       <c r="R9">
-        <v>5068.946776866197</v>
+        <v>5479.471255111611</v>
       </c>
       <c r="S9">
-        <v>0.1116038885705892</v>
+        <v>0.757912817631534</v>
       </c>
       <c r="T9">
-        <v>0.1116038885705892</v>
+        <v>0.7579128176315341</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.3464216666666666</v>
+        <v>0.3446996666666666</v>
       </c>
       <c r="H10">
-        <v>1.039265</v>
+        <v>1.034099</v>
       </c>
       <c r="I10">
-        <v>0.002185503843515531</v>
+        <v>0.003562269474506148</v>
       </c>
       <c r="J10">
-        <v>0.002185503843515531</v>
+        <v>0.003562269474506148</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1051,28 +1051,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>24.12906</v>
+        <v>0.05933733333333333</v>
       </c>
       <c r="N10">
-        <v>72.38718</v>
+        <v>0.178012</v>
       </c>
       <c r="O10">
-        <v>0.7578756968848996</v>
+        <v>0.007147682076632682</v>
       </c>
       <c r="P10">
-        <v>0.7578756968848996</v>
+        <v>0.007147682076632683</v>
       </c>
       <c r="Q10">
-        <v>8.358829180299999</v>
+        <v>0.02045355902088889</v>
       </c>
       <c r="R10">
-        <v>75.2294626227</v>
+        <v>0.184082031188</v>
       </c>
       <c r="S10">
-        <v>0.00165634024844896</v>
+        <v>2.546196967506332E-05</v>
       </c>
       <c r="T10">
-        <v>0.00165634024844896</v>
+        <v>2.546196967506332E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.3464216666666666</v>
+        <v>0.3446996666666666</v>
       </c>
       <c r="H11">
-        <v>1.039265</v>
+        <v>1.034099</v>
       </c>
       <c r="I11">
-        <v>0.002185503843515531</v>
+        <v>0.003562269474506148</v>
       </c>
       <c r="J11">
-        <v>0.002185503843515531</v>
+        <v>0.003562269474506148</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1113,28 +1113,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.6016783333333334</v>
+        <v>0.6016783333333333</v>
       </c>
       <c r="N11">
         <v>1.805035</v>
       </c>
       <c r="O11">
-        <v>0.01889826566702329</v>
+        <v>0.07247722803628223</v>
       </c>
       <c r="P11">
-        <v>0.01889826566702329</v>
+        <v>0.07247722803628223</v>
       </c>
       <c r="Q11">
-        <v>0.2084344110305556</v>
+        <v>0.2073983209405555</v>
       </c>
       <c r="R11">
-        <v>1.875909699275</v>
+        <v>1.866584888465</v>
       </c>
       <c r="S11">
-        <v>4.130223225105701E-05</v>
+        <v>0.0002581834170304694</v>
       </c>
       <c r="T11">
-        <v>4.1302232251057E-05</v>
+        <v>0.0002581834170304693</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,46 +1157,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.3464216666666666</v>
+        <v>0.3446996666666666</v>
       </c>
       <c r="H12">
-        <v>1.039265</v>
+        <v>1.034099</v>
       </c>
       <c r="I12">
-        <v>0.002185503843515531</v>
+        <v>0.003562269474506148</v>
       </c>
       <c r="J12">
-        <v>0.002185503843515531</v>
+        <v>0.003562269474506148</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.039222</v>
+        <v>0.0004023333333333333</v>
       </c>
       <c r="N12">
-        <v>0.117666</v>
+        <v>0.001207</v>
       </c>
       <c r="O12">
-        <v>0.001231933634514545</v>
+        <v>4.846444209657577E-05</v>
       </c>
       <c r="P12">
-        <v>0.001231933634514545</v>
+        <v>4.846444209657578E-05</v>
       </c>
       <c r="Q12">
-        <v>0.01358735061</v>
+        <v>0.0001386841658888889</v>
       </c>
       <c r="R12">
-        <v>0.12228615549</v>
+        <v>0.001248157493</v>
       </c>
       <c r="S12">
-        <v>2.692395693187596E-06</v>
+        <v>1.726434026796026E-07</v>
       </c>
       <c r="T12">
-        <v>2.692395693187596E-06</v>
+        <v>1.726434026796026E-07</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.3464216666666666</v>
+        <v>0.3446996666666666</v>
       </c>
       <c r="H13">
-        <v>1.039265</v>
+        <v>1.034099</v>
       </c>
       <c r="I13">
-        <v>0.002185503843515531</v>
+        <v>0.003562269474506148</v>
       </c>
       <c r="J13">
-        <v>0.002185503843515531</v>
+        <v>0.003562269474506148</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>7.067793666666667</v>
+        <v>7.640201</v>
       </c>
       <c r="N13">
-        <v>21.203381</v>
+        <v>22.920603</v>
       </c>
       <c r="O13">
-        <v>0.2219941038135626</v>
+        <v>0.9203266254449884</v>
       </c>
       <c r="P13">
-        <v>0.2219941038135626</v>
+        <v>0.9203266254449886</v>
       </c>
       <c r="Q13">
-        <v>2.448436861662778</v>
+        <v>2.633574737966333</v>
       </c>
       <c r="R13">
-        <v>22.035931754965</v>
+        <v>23.702172641697</v>
       </c>
       <c r="S13">
-        <v>0.0004851689671223269</v>
+        <v>0.003278451444397935</v>
       </c>
       <c r="T13">
-        <v>0.0004851689671223269</v>
+        <v>0.003278451444397935</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>37.53186833333334</v>
+        <v>16.17571666666667</v>
       </c>
       <c r="H14">
-        <v>112.595605</v>
+        <v>48.52715</v>
       </c>
       <c r="I14">
-        <v>0.2367809244903433</v>
+        <v>0.1671665721848498</v>
       </c>
       <c r="J14">
-        <v>0.2367809244903433</v>
+        <v>0.1671665721848498</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1299,28 +1299,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>24.12906</v>
+        <v>0.05933733333333333</v>
       </c>
       <c r="N14">
-        <v>72.38718</v>
+        <v>0.178012</v>
       </c>
       <c r="O14">
-        <v>0.7578756968848996</v>
+        <v>0.007147682076632682</v>
       </c>
       <c r="P14">
-        <v>0.7578756968848996</v>
+        <v>0.007147682076632683</v>
       </c>
       <c r="Q14">
-        <v>905.6087029271</v>
+        <v>0.9598238917555555</v>
       </c>
       <c r="R14">
-        <v>8150.4783263439</v>
+        <v>8.638415025800001</v>
       </c>
       <c r="S14">
-        <v>0.1794505081571697</v>
+        <v>0.001194853511817775</v>
       </c>
       <c r="T14">
-        <v>0.1794505081571697</v>
+        <v>0.001194853511817775</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>37.53186833333334</v>
+        <v>16.17571666666667</v>
       </c>
       <c r="H15">
-        <v>112.595605</v>
+        <v>48.52715</v>
       </c>
       <c r="I15">
-        <v>0.2367809244903433</v>
+        <v>0.1671665721848498</v>
       </c>
       <c r="J15">
-        <v>0.2367809244903433</v>
+        <v>0.1671665721848498</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1361,28 +1361,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>0.6016783333333334</v>
+        <v>0.6016783333333333</v>
       </c>
       <c r="N15">
         <v>1.805035</v>
       </c>
       <c r="O15">
-        <v>0.01889826566702329</v>
+        <v>0.07247722803628223</v>
       </c>
       <c r="P15">
-        <v>0.01889826566702329</v>
+        <v>0.07247722803628223</v>
       </c>
       <c r="Q15">
-        <v>22.58211198568612</v>
+        <v>9.732578244472222</v>
       </c>
       <c r="R15">
-        <v>203.239007871175</v>
+        <v>87.59320420025</v>
       </c>
       <c r="S15">
-        <v>0.004474748815901889</v>
+        <v>0.012115769772285</v>
       </c>
       <c r="T15">
-        <v>0.004474748815901887</v>
+        <v>0.01211576977228499</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,46 +1405,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>37.53186833333334</v>
+        <v>16.17571666666667</v>
       </c>
       <c r="H16">
-        <v>112.595605</v>
+        <v>48.52715</v>
       </c>
       <c r="I16">
-        <v>0.2367809244903433</v>
+        <v>0.1671665721848498</v>
       </c>
       <c r="J16">
-        <v>0.2367809244903433</v>
+        <v>0.1671665721848498</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.039222</v>
+        <v>0.0004023333333333333</v>
       </c>
       <c r="N16">
-        <v>0.117666</v>
+        <v>0.001207</v>
       </c>
       <c r="O16">
-        <v>0.001231933634514545</v>
+        <v>4.846444209657577E-05</v>
       </c>
       <c r="P16">
-        <v>0.001231933634514545</v>
+        <v>4.846444209657578E-05</v>
       </c>
       <c r="Q16">
-        <v>1.47207493977</v>
+        <v>0.006508030005555555</v>
       </c>
       <c r="R16">
-        <v>13.24867445793</v>
+        <v>0.05857227005</v>
       </c>
       <c r="S16">
-        <v>0.0002916983848911027</v>
+        <v>8.10163465813571E-06</v>
       </c>
       <c r="T16">
-        <v>0.0002916983848911027</v>
+        <v>8.10163465813571E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>37.53186833333334</v>
+        <v>16.17571666666667</v>
       </c>
       <c r="H17">
-        <v>112.595605</v>
+        <v>48.52715</v>
       </c>
       <c r="I17">
-        <v>0.2367809244903433</v>
+        <v>0.1671665721848498</v>
       </c>
       <c r="J17">
-        <v>0.2367809244903433</v>
+        <v>0.1671665721848498</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>7.067793666666667</v>
+        <v>7.640201</v>
       </c>
       <c r="N17">
-        <v>21.203381</v>
+        <v>22.920603</v>
       </c>
       <c r="O17">
-        <v>0.2219941038135626</v>
+        <v>0.9203266254449884</v>
       </c>
       <c r="P17">
-        <v>0.2219941038135626</v>
+        <v>0.9203266254449886</v>
       </c>
       <c r="Q17">
-        <v>265.2675013045006</v>
+        <v>123.5857266523833</v>
       </c>
       <c r="R17">
-        <v>2387.407511740505</v>
+        <v>1112.27153987145</v>
       </c>
       <c r="S17">
-        <v>0.05256396913238059</v>
+        <v>0.1538478472660889</v>
       </c>
       <c r="T17">
-        <v>0.05256396913238059</v>
+        <v>0.1538478472660889</v>
       </c>
     </row>
   </sheetData>
